--- a/conf/공동주택 현황-KAPT 수정.xlsx
+++ b/conf/공동주택 현황-KAPT 수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
   <si>
     <t>단지코드</t>
   </si>
@@ -95,6 +95,750 @@
   </si>
   <si>
     <t>경기도 용인시 수지구 신봉3로11번길 10-7</t>
+  </si>
+  <si>
+    <t>A10026640</t>
+  </si>
+  <si>
+    <t>역북지웰 푸르지오</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 역북동 561-38</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 명지로40번길 35-16</t>
+  </si>
+  <si>
+    <t>A10026765</t>
+  </si>
+  <si>
+    <t>용인역북골드클래스아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 역북동 808</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 명지로40번길 35-29</t>
+  </si>
+  <si>
+    <t>A10025660</t>
+  </si>
+  <si>
+    <t>양우내안애에듀퍼스트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 고림동 1004</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 경안천로 196-1</t>
+  </si>
+  <si>
+    <t>A10026208</t>
+  </si>
+  <si>
+    <t>이편한세상 용인한숲시티 3단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사면 완장리 949</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 한숲로 123</t>
+  </si>
+  <si>
+    <t>A10026198</t>
+  </si>
+  <si>
+    <t>e편한세상 용인한숲시티 5단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사면 아곡리 681</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 한숲로 83</t>
+  </si>
+  <si>
+    <t>A10026178</t>
+  </si>
+  <si>
+    <t>e편한세상 용인한숲시티6단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사면 완장리 954</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 한숲로 84</t>
+  </si>
+  <si>
+    <t>A10026189</t>
+  </si>
+  <si>
+    <t>e편한세상용인한숲시티4단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사면 완장리 952</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 한숲로 124</t>
+  </si>
+  <si>
+    <t>A10026202</t>
+  </si>
+  <si>
+    <t>e편한세상 용인한숲시티 2단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 남사면 완장리 945</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 한숲로 137</t>
+  </si>
+  <si>
+    <t>A44658008</t>
+  </si>
+  <si>
+    <t>강남마을자연앤4,6단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈동 603</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 강남동로 42</t>
+  </si>
+  <si>
+    <t>A10026657</t>
+  </si>
+  <si>
+    <t>기흥역 롯데캐슬레이시티</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈동 227-32</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 기흥역로 9</t>
+  </si>
+  <si>
+    <t>A44674105</t>
+  </si>
+  <si>
+    <t>영덕신일</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 영덕동 14-11</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 덕영대로2077번길 20</t>
+  </si>
+  <si>
+    <t>A44675112</t>
+  </si>
+  <si>
+    <t>초당마을코아루(12-2블록)</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 중동 1047</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 동백1로 9</t>
+  </si>
+  <si>
+    <t>A44817003</t>
+  </si>
+  <si>
+    <t>진산마을삼성래미안7차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 풍덕천동 1180-1</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 진산로66번길 27</t>
+  </si>
+  <si>
+    <t>A10025555</t>
+  </si>
+  <si>
+    <t>수지파크푸르지오</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 풍덕천동 1223</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 풍덕천로171번길 9</t>
+  </si>
+  <si>
+    <t>A44875506</t>
+  </si>
+  <si>
+    <t>벽산타운3단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전동 941</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 용구대로2801번길 17</t>
+  </si>
+  <si>
+    <t>A10026065</t>
+  </si>
+  <si>
+    <t>동천자이아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 동천동 105-3</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 고기로 89</t>
+  </si>
+  <si>
+    <t>A10025481</t>
+  </si>
+  <si>
+    <t>동천자이2차아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 동천동 164-4</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 고기로45번길 40-18</t>
+  </si>
+  <si>
+    <t>A44853609</t>
+  </si>
+  <si>
+    <t>동일하이빌4단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉동 976</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉3로12번길 9</t>
+  </si>
+  <si>
+    <t>A44853606</t>
+  </si>
+  <si>
+    <t>신봉센트레빌1단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉동 959</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉1로172번길 8</t>
+  </si>
+  <si>
+    <t>A10027893</t>
+  </si>
+  <si>
+    <t>광교산자이아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉동 960</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉2로 93</t>
+  </si>
+  <si>
+    <t>A10026986</t>
+  </si>
+  <si>
+    <t>광교산한양수자인더킨포크</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉동 1024</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 태봉로 17</t>
+  </si>
+  <si>
+    <t>A10026460</t>
+  </si>
+  <si>
+    <t>수지 성복 효성해링턴코트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 성복동 787</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 성복1로281번길 20</t>
+  </si>
+  <si>
+    <t>A10024775</t>
+  </si>
+  <si>
+    <t>성복역 롯데캐슬파크나인1차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 성복동 195-2</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 성복1로 13</t>
+  </si>
+  <si>
+    <t>A10025299</t>
+  </si>
+  <si>
+    <t>상현더샵파크사이드</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 상현동 1214</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 만현로67번길 20</t>
+  </si>
+  <si>
+    <t>A44971901</t>
+  </si>
+  <si>
+    <t>용인삼가풍림</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 삼가동 117</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 삼가로 28</t>
+  </si>
+  <si>
+    <t>A44980404</t>
+  </si>
+  <si>
+    <t>행정타운늘푸른오스카빌</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 삼가동 550</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 중부대로1158번길 12</t>
+  </si>
+  <si>
+    <t>A44658414</t>
+  </si>
+  <si>
+    <t>기흥더샵프라임뷰</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 신갈동 733</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈로 71-18</t>
+  </si>
+  <si>
+    <t>A44658415</t>
+  </si>
+  <si>
+    <t>기흥역롯데캐슬스카이</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 신갈동 63</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 중부대로 375</t>
+  </si>
+  <si>
+    <t>A44673613</t>
+  </si>
+  <si>
+    <t>구갈한양</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈동 396</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈로28번길 21-11</t>
+  </si>
+  <si>
+    <t>A44695101</t>
+  </si>
+  <si>
+    <t>구갈안골마을롯데캐슬</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구갈동 276</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 기흥로38번길 54</t>
+  </si>
+  <si>
+    <t>A44658307</t>
+  </si>
+  <si>
+    <t>보라마을현대모닝사이드2차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 보라동 564</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 용구대로 1842</t>
+  </si>
+  <si>
+    <t>A10027304</t>
+  </si>
+  <si>
+    <t>힐스테이트 서천 아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 서천동 801</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 서천동로 22</t>
+  </si>
+  <si>
+    <t>A10027657</t>
+  </si>
+  <si>
+    <t>서천2차아이파크아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 서천동 755</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 서천동로21번길 11-22</t>
+  </si>
+  <si>
+    <t>A44690806</t>
+  </si>
+  <si>
+    <t>휴먼시아흥덕마을1단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 영덕동 980</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 흥덕1로79번길 7</t>
+  </si>
+  <si>
+    <t>A44657001</t>
+  </si>
+  <si>
+    <t>동부센트레빌</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 언남동 493</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 구성로 99</t>
+  </si>
+  <si>
+    <t>A44691615</t>
+  </si>
+  <si>
+    <t>백현마을동일하이빌</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 중동 874</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 동백중앙로 312</t>
+  </si>
+  <si>
+    <t>A44694209</t>
+  </si>
+  <si>
+    <t>수원동마을쌍용아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 상하동 621</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 중부대로788번길 20</t>
+  </si>
+  <si>
+    <t>A44899104</t>
+  </si>
+  <si>
+    <t>진산마을삼성래미안6차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 풍덕천동 1168-2</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 진산로 108</t>
+  </si>
+  <si>
+    <t>A44816010</t>
+  </si>
+  <si>
+    <t>도담마을아이파크</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전동 331</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 대지로 82</t>
+  </si>
+  <si>
+    <t>A44897120</t>
+  </si>
+  <si>
+    <t>새터마을죽전힐스테이트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전동 1165</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 현암로125번길 11</t>
+  </si>
+  <si>
+    <t>A44816003</t>
+  </si>
+  <si>
+    <t>죽전7차현대홈타운1단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전동 1151</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 탄천상로 7</t>
+  </si>
+  <si>
+    <t>A44816019</t>
+  </si>
+  <si>
+    <t>내대지마을푸르지오</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전동 1221</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 죽전로 235</t>
+  </si>
+  <si>
+    <t>A44853610</t>
+  </si>
+  <si>
+    <t>동부센트레빌5단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉동 949</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 신봉1로 214</t>
+  </si>
+  <si>
+    <t>A44852602</t>
+  </si>
+  <si>
+    <t>만현마을2단지현대아이파크</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 상현동 856</t>
+  </si>
+  <si>
+    <t>경기도 용인시 수지구 만현로67번길 9</t>
+  </si>
+  <si>
+    <t>A44981402</t>
+  </si>
+  <si>
+    <t>수목원우림필유</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 삼계리 672</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 백옥대로1898번길 34</t>
+  </si>
+  <si>
+    <t>A44981205</t>
+  </si>
+  <si>
+    <t>신원1차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전리 385</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 포곡로 90</t>
+  </si>
+  <si>
+    <t>A44982804</t>
+  </si>
+  <si>
+    <t>금전마을리슈빌아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전리 447</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전로 15</t>
+  </si>
+  <si>
+    <t>A44981201</t>
+  </si>
+  <si>
+    <t>신원2차</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전리 147</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 포곡로 98-1</t>
+  </si>
+  <si>
+    <t>A44977906</t>
+  </si>
+  <si>
+    <t>인정멜로디</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전리 319</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 포곡로61번길 17</t>
+  </si>
+  <si>
+    <t>A44981101</t>
+  </si>
+  <si>
+    <t>삼성쉐르빌아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 둔전리 449</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 포곡로 159</t>
+  </si>
+  <si>
+    <t>A44978603</t>
+  </si>
+  <si>
+    <t>배머루베네치아</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 영문리 555</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 포곡읍 영문로 64</t>
+  </si>
+  <si>
+    <t>A44985401</t>
+  </si>
+  <si>
+    <t>풍산햇빛마을</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 왕산리 464-2</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 백옥대로2332번길 21-8</t>
+  </si>
+  <si>
+    <t>A44985101</t>
+  </si>
+  <si>
+    <t>모현KCC스위첸</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 왕산리 948</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 외대로54번길 12</t>
+  </si>
+  <si>
+    <t>A44985502</t>
+  </si>
+  <si>
+    <t>효천마을신안인스빌</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 일산리 669</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 모현읍 문현로 326</t>
+  </si>
+  <si>
+    <t>A44983101</t>
+  </si>
+  <si>
+    <t>송전마을세광리치타워</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 송전리 1227</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 경기동로705번길 28</t>
+  </si>
+  <si>
+    <t>A44983301</t>
+  </si>
+  <si>
+    <t>동아</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 천리 118-1</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 이원로 22</t>
+  </si>
+  <si>
+    <t>A44983303</t>
+  </si>
+  <si>
+    <t>한천마을금광베네스타</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 천리 1134</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 백옥대로 711</t>
+  </si>
+  <si>
+    <t>A44983602</t>
+  </si>
+  <si>
+    <t>샘골마을신미주2단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 천리 1124</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 백옥대로587번길 7</t>
+  </si>
+  <si>
+    <t>A44983604</t>
+  </si>
+  <si>
+    <t>샘골마을신미주1단지</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 천리 1119</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 백옥대로621번길 11</t>
+  </si>
+  <si>
+    <t>A10027387</t>
+  </si>
+  <si>
+    <t>에이스카운티아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 천리 1142</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 이동읍 백옥대로 737</t>
+  </si>
+  <si>
+    <t>A44982301</t>
+  </si>
+  <si>
+    <t>양지마을신원아침도시</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 양지면 양지리 907</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 양지면 교동로 1</t>
+  </si>
+  <si>
+    <t>A10025679</t>
+  </si>
+  <si>
+    <t>양지포레스토리</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 양지면 남곡리 898</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 양지면 은이로 85</t>
   </si>
 </sst>
 </file>
@@ -210,7 +954,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -233,6 +977,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1347,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1458,6 +2205,874 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" t="s" s="5">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" t="s" s="5">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" t="s" s="5">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="5">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="5">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="5">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s" s="8">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s" s="8">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" t="s" s="5">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s" s="8">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s" s="8">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="5">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s" s="8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="5">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="5">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="8">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" t="s" s="5">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s" s="5">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s" s="5">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s" s="8">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="5">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s" s="5">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" t="s" s="5">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s" s="5">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" t="s" s="5">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="5">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="5">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s" s="5">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s" s="8">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" ht="13.55" customHeight="1">
+      <c r="A29" t="s" s="5">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s" s="5">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s" s="8">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" ht="13.55" customHeight="1">
+      <c r="A30" t="s" s="5">
+        <v>116</v>
+      </c>
+      <c r="B30" t="s" s="5">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s" s="8">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" ht="13.55" customHeight="1">
+      <c r="A31" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s" s="5">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s" s="8">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" ht="13.55" customHeight="1">
+      <c r="A32" t="s" s="5">
+        <v>124</v>
+      </c>
+      <c r="B32" t="s" s="5">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s" s="5">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="13.55" customHeight="1">
+      <c r="A33" t="s" s="5">
+        <v>128</v>
+      </c>
+      <c r="B33" t="s" s="5">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s" s="5">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s" s="8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="13.55" customHeight="1">
+      <c r="A34" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="B34" t="s" s="5">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s" s="8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="13.55" customHeight="1">
+      <c r="A35" t="s" s="5">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" ht="13.55" customHeight="1">
+      <c r="A36" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s" s="5">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" ht="13.55" customHeight="1">
+      <c r="A37" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" ht="13.55" customHeight="1">
+      <c r="A38" t="s" s="5">
+        <v>148</v>
+      </c>
+      <c r="B38" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" ht="13.55" customHeight="1">
+      <c r="A39" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="B39" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s" s="5">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" ht="13.55" customHeight="1">
+      <c r="A40" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="B40" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s" s="8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="13.55" customHeight="1">
+      <c r="A41" t="s" s="5">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" ht="13.55" customHeight="1">
+      <c r="A42" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s" s="5">
+        <v>166</v>
+      </c>
+      <c r="D42" t="s" s="8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" ht="13.55" customHeight="1">
+      <c r="A43" t="s" s="5">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s" s="5">
+        <v>169</v>
+      </c>
+      <c r="C43" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="D43" t="s" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" ht="13.55" customHeight="1">
+      <c r="A44" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s" s="5">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="D44" t="s" s="8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" ht="13.55" customHeight="1">
+      <c r="A45" t="s" s="5">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s" s="5">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s" s="8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" ht="13.55" customHeight="1">
+      <c r="A46" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="B46" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s" s="5">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s" s="8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" ht="13.55" customHeight="1">
+      <c r="A47" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="B47" t="s" s="5">
+        <v>185</v>
+      </c>
+      <c r="C47" t="s" s="5">
+        <v>186</v>
+      </c>
+      <c r="D47" t="s" s="8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" ht="13.55" customHeight="1">
+      <c r="A48" t="s" s="5">
+        <v>188</v>
+      </c>
+      <c r="B48" t="s" s="5">
+        <v>189</v>
+      </c>
+      <c r="C48" t="s" s="5">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s" s="8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" ht="13.55" customHeight="1">
+      <c r="A49" t="s" s="5">
+        <v>192</v>
+      </c>
+      <c r="B49" t="s" s="5">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s" s="5">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s" s="8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" ht="13.55" customHeight="1">
+      <c r="A50" t="s" s="5">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s" s="5">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s" s="5">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s" s="8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" ht="13.55" customHeight="1">
+      <c r="A51" t="s" s="5">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s" s="5">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s" s="8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" ht="13.55" customHeight="1">
+      <c r="A52" t="s" s="5">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s" s="5">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s" s="5">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" ht="13.55" customHeight="1">
+      <c r="A53" t="s" s="5">
+        <v>208</v>
+      </c>
+      <c r="B53" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s" s="5">
+        <v>210</v>
+      </c>
+      <c r="D53" t="s" s="5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" ht="13.55" customHeight="1">
+      <c r="A54" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="B54" t="s" s="5">
+        <v>213</v>
+      </c>
+      <c r="C54" t="s" s="5">
+        <v>214</v>
+      </c>
+      <c r="D54" t="s" s="5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" ht="13.55" customHeight="1">
+      <c r="A55" t="s" s="5">
+        <v>216</v>
+      </c>
+      <c r="B55" t="s" s="5">
+        <v>217</v>
+      </c>
+      <c r="C55" t="s" s="5">
+        <v>218</v>
+      </c>
+      <c r="D55" t="s" s="5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" ht="13.55" customHeight="1">
+      <c r="A56" t="s" s="5">
+        <v>220</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>222</v>
+      </c>
+      <c r="D56" t="s" s="5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" ht="13.55" customHeight="1">
+      <c r="A57" t="s" s="5">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s" s="5">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s" s="5">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s" s="5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" ht="13.55" customHeight="1">
+      <c r="A58" t="s" s="5">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s" s="5">
+        <v>229</v>
+      </c>
+      <c r="C58" t="s" s="5">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s" s="5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" ht="13.55" customHeight="1">
+      <c r="A59" t="s" s="5">
+        <v>232</v>
+      </c>
+      <c r="B59" t="s" s="5">
+        <v>233</v>
+      </c>
+      <c r="C59" t="s" s="5">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" ht="13.55" customHeight="1">
+      <c r="A60" t="s" s="5">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s" s="5">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s" s="5">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s" s="5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" ht="13.55" customHeight="1">
+      <c r="A61" t="s" s="5">
+        <v>240</v>
+      </c>
+      <c r="B61" t="s" s="5">
+        <v>241</v>
+      </c>
+      <c r="C61" t="s" s="5">
+        <v>242</v>
+      </c>
+      <c r="D61" t="s" s="5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" ht="13.55" customHeight="1">
+      <c r="A62" t="s" s="5">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s" s="5">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s" s="5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" ht="13.55" customHeight="1">
+      <c r="A63" t="s" s="5">
+        <v>248</v>
+      </c>
+      <c r="B63" t="s" s="5">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s" s="5">
+        <v>250</v>
+      </c>
+      <c r="D63" t="s" s="5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" ht="13.55" customHeight="1">
+      <c r="A64" t="s" s="5">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s" s="5">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s" s="5">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s" s="5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" ht="13.55" customHeight="1">
+      <c r="A65" t="s" s="5">
+        <v>256</v>
+      </c>
+      <c r="B65" t="s" s="5">
+        <v>257</v>
+      </c>
+      <c r="C65" t="s" s="5">
+        <v>258</v>
+      </c>
+      <c r="D65" t="s" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" ht="13.55" customHeight="1">
+      <c r="A66" t="s" s="5">
+        <v>260</v>
+      </c>
+      <c r="B66" t="s" s="5">
+        <v>261</v>
+      </c>
+      <c r="C66" t="s" s="5">
+        <v>262</v>
+      </c>
+      <c r="D66" t="s" s="5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" ht="13.55" customHeight="1">
+      <c r="A67" t="s" s="5">
+        <v>264</v>
+      </c>
+      <c r="B67" t="s" s="5">
+        <v>265</v>
+      </c>
+      <c r="C67" t="s" s="5">
+        <v>266</v>
+      </c>
+      <c r="D67" t="s" s="5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" ht="13.55" customHeight="1">
+      <c r="A68" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="B68" t="s" s="5">
+        <v>269</v>
+      </c>
+      <c r="C68" t="s" s="5">
+        <v>270</v>
+      </c>
+      <c r="D68" t="s" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" ht="13.55" customHeight="1">
+      <c r="A69" t="s" s="5">
+        <v>272</v>
+      </c>
+      <c r="B69" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="C69" t="s" s="5">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s" s="5">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
